--- a/BlueM/Gain Schedule Tables/BlueMTempGainsTable.xlsx
+++ b/BlueM/Gain Schedule Tables/BlueMTempGainsTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nasstore.engr.colostate.edu\students\UNGRAD\UE\dluckner\home\Mech 486\SkeletonCode\Gain Schedule Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbohora\Desktop\Excel to Gain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Max Temperature</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +356,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1">
+        <v>150</v>
+      </c>
+      <c r="E1" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BlueM/Gain Schedule Tables/BlueMTempGainsTable.xlsx
+++ b/BlueM/Gain Schedule Tables/BlueMTempGainsTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbohora\Desktop\Excel to Gain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbohora\Desktop\DAQ-Console-master\BlueM\Gain Schedule Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -359,19 +359,20 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1">
         <v>50</v>
       </c>
       <c r="C1" s="1">
@@ -388,51 +389,51 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
+      <c r="B2">
+        <v>3.5362773999999999</v>
+      </c>
+      <c r="C2">
+        <v>10.028527</v>
+      </c>
+      <c r="D2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8</v>
+      <c r="B3">
+        <v>0.28603200000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.118836</v>
+      </c>
+      <c r="D3">
+        <v>0.15</v>
+      </c>
+      <c r="E3">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
+      <c r="B4">
+        <v>5.7206399999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.3767E-2</v>
+      </c>
+      <c r="D4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E4">
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
   </sheetData>

--- a/BlueM/Gain Schedule Tables/BlueMTempGainsTable.xlsx
+++ b/BlueM/Gain Schedule Tables/BlueMTempGainsTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbohora\Desktop\DAQ-Console-master\BlueM\Gain Schedule Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAQ Team\Latest\BlueM\Gain Schedule Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -359,13 +359,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -393,13 +394,13 @@
         <v>3.5362773999999999</v>
       </c>
       <c r="C2">
-        <v>10.028527</v>
+        <v>3.3815868999999998</v>
       </c>
       <c r="D2">
-        <v>3.0000000000000001E-3</v>
+        <v>4.9158626999999999</v>
       </c>
       <c r="E2">
-        <v>3.0000000000000001E-3</v>
+        <v>8.0134588000000004</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -410,13 +411,13 @@
         <v>0.28603200000000001</v>
       </c>
       <c r="C3">
-        <v>0.118836</v>
+        <v>0.214587</v>
       </c>
       <c r="D3">
-        <v>0.15</v>
+        <v>0.204544</v>
       </c>
       <c r="E3">
-        <v>0.15</v>
+        <v>0.30090499999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -427,13 +428,13 @@
         <v>5.7206399999999998E-2</v>
       </c>
       <c r="C4">
-        <v>2.3767E-2</v>
+        <v>4.2917499999999997E-2</v>
       </c>
       <c r="D4">
-        <v>6.9000000000000006E-2</v>
+        <v>4.0908899999999998E-2</v>
       </c>
       <c r="E4">
-        <v>6.9000000000000006E-2</v>
+        <v>8.0181000000000002E-2</v>
       </c>
     </row>
   </sheetData>
